--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/APICasinoGamesCasinoImagesBrokenData/9TetherbetDataBrokenIMGListForMobile.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/APICasinoGamesCasinoImagesBrokenData/9TetherbetDataBrokenIMGListForMobile.xlsx
@@ -12,295 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
-  <si>
-    <t>2  Game Provider Name = NetEnt   Game Name =  Aloha  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Aloha_252_190.jpg</t>
-  </si>
-  <si>
-    <t>3  Game Provider Name = NetEnt   Game Name =  Arcane  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/ArcaneReelChaos_376x250.gif</t>
-  </si>
-  <si>
-    <t>4  Game Provider Name = NetEnt   Game Name =  Archangels  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Archangels.png</t>
-  </si>
-  <si>
-    <t>5  Game Provider Name = NetEnt   Game Name =  AsgardianStones  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/AsgardianStones.png</t>
-  </si>
-  <si>
-    <t>6  Game Provider Name = NetEnt   Game Name =  Berry Burst  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/BerryBurst.jpg</t>
-  </si>
-  <si>
-    <t>7  Game Provider Name = NetEnt   Game Name =  Berry Burst Max  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/BerryBurstMax.jpg</t>
-  </si>
-  <si>
-    <t>9  Game Provider Name = PragmaticPlay   Game Name =  Bigger Bass Bonanza  cod = 404   src = https://resources.tetherbet.io/products/pragmaticplay\mob\biggerbassbonanza.png</t>
-  </si>
-  <si>
-    <t>10  Game Provider Name = NetEnt   Game Name =  blacklagoon  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/blacklagoon.png</t>
-  </si>
-  <si>
-    <t>11  Game Provider Name = NetEnt   Game Name =  Blood Suckers  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/blood_suckers_252_190_.jpg</t>
-  </si>
-  <si>
-    <t>12  Game Provider Name = NetEnt   Game Name =  Blood Suckers 2  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Blood_Suckers_252_190.jpg</t>
-  </si>
-  <si>
-    <t>13  Game Provider Name = NetEnt   Game Name =  BollywoodStory  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/bollywood_story.png</t>
-  </si>
-  <si>
-    <t>17  Game Provider Name = NetEnt   Game Name =  Butterfly Staxx  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Butterfly_staxx_252_190.jpg</t>
-  </si>
-  <si>
-    <t>18  Game Provider Name = NetEnt   Game Name =  Butterfly Staxx 2  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/ButterflyStaxx2.jpg.jpg</t>
-  </si>
-  <si>
-    <t>19  Game Provider Name = NetEnt   Game Name =  CashNoire  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/CashNoire.png</t>
-  </si>
-  <si>
-    <t>20  Game Provider Name = NetEnt   Game Name =  Colossal Pinatas  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/ColossalPinatas.jpg</t>
-  </si>
-  <si>
-    <t>21  Game Provider Name = NetEnt   Game Name =  Copy Cats  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Copy_Cats_252_190.jpg</t>
-  </si>
-  <si>
-    <t>22  Game Provider Name = NetEnt   Game Name =  DarkKing  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/DarkKing.png</t>
-  </si>
-  <si>
-    <t>23  Game Provider Name = NetEnt   Game Name =  Dazzleme  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Dazzle_Me_252_190.jpg</t>
-  </si>
-  <si>
-    <t>24  Game Provider Name = NetEnt   Game Name =  Dead Or Alive  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Dead_or_Alive_252_190.jpg</t>
-  </si>
-  <si>
-    <t>25  Game Provider Name = NetEnt   Game Name =  Dead Or Alive 2  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/DeadOrAlive2.jpg</t>
-  </si>
-  <si>
-    <t>26  Game Provider Name = NetEnt   Game Name =  DeadOrAlive2FB  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/dead_or_alive2FB.png</t>
-  </si>
-  <si>
-    <t>29  Game Provider Name = NetEnt   Game Name =  DoubleStac  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/double_stacks.png</t>
-  </si>
-  <si>
-    <t>30  Game Provider Name = NetEnt   Game Name =  Dracula  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Dracula_slots_252_190.jpg</t>
-  </si>
-  <si>
-    <t>31  Game Provider Name = NetEnt   Game Name =  Gonzo's Quest  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Gonzo_s_Quest_252_190.jpg</t>
-  </si>
-  <si>
-    <t>32  Game Provider Name = NetEnt   Game Name =  Elements  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Elements_376x250.gif</t>
-  </si>
-  <si>
-    <t>33  Game Provider Name = NetEnt   Game Name =  Elements  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Elements_the_awakening_252_190.jpg</t>
-  </si>
-  <si>
-    <t>34  Game Provider Name = NetEnt   Game Name =  Excalibur  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/excalibur.png</t>
-  </si>
-  <si>
-    <t>35  Game Provider Name = NetEnt   Game Name =  Fairy Red  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Fairytale_legends_Hansel_Gratel_252_190.jpg</t>
-  </si>
-  <si>
-    <t>36  Game Provider Name = PragmaticPlay   Game Name =  Floating Dragon  cod = 404   src = https://resources.tetherbet.io/products/pragmaticplay/mob/FloatingDragon.png</t>
-  </si>
-  <si>
-    <t>37  Game Provider Name = NetEnt   Game Name =  Flowers  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Flowers.jpg</t>
-  </si>
-  <si>
-    <t>38  Game Provider Name = NetEnt   Game Name =  Flowers Christmas  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/FlowersChristmas.jpg</t>
-  </si>
-  <si>
-    <t>39  Game Provider Name = NetEnt   Game Name =  Football  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Football_champions_cup_252_190.jpg</t>
-  </si>
-  <si>
-    <t>40  Game Provider Name = NetEnt   Game Name =  FortuneRangers  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/FortuneRangers.png</t>
-  </si>
-  <si>
-    <t>41  Game Provider Name = NetEnt   Game Name =  Fruit Shop  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Fruit_shop_252_190.jpg</t>
-  </si>
-  <si>
-    <t>42  Game Provider Name = PragmaticPlay   Game Name =  Gates of Olympus  cod = 404   src = https://resources.tetherbet.io/products/pragmaticplay/mob/GatesofOlympus.jpg</t>
-  </si>
-  <si>
-    <t>43  Game Provider Name = NetEnt   Game Name =  Gods Of Fortune  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/GodsOfFortune.jpg</t>
-  </si>
-  <si>
-    <t>44  Game Provider Name = NetEnt   Game Name =  godsofgold  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/gods_of_gold.png</t>
-  </si>
-  <si>
-    <t>45  Game Provider Name = NetEnt   Game Name =  Golden Grimoire  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/GoldenGrimoire.jpg</t>
-  </si>
-  <si>
-    <t>47  Game Provider Name = NetEnt   Game Name =  GorillaKingdom  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/GorillaKingdom_376x250.gif</t>
-  </si>
-  <si>
-    <t>48  Game Provider Name = NetEnt   Game Name =  Gunsnroses  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Guns_n__roses_video_slots_252_190.jpg</t>
-  </si>
-  <si>
-    <t>49  Game Provider Name = NetEnt   Game Name =  hiddencoinsofegypt  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/hiddencoinsofegypt.png</t>
-  </si>
-  <si>
-    <t>50  Game Provider Name = NetEnt   Game Name =  Hotline2  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/hotline2.png</t>
-  </si>
-  <si>
-    <t>51  Game Provider Name = NetEnt   Game Name =  Invisible Man  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/The_invisible_man_252_190.jpg</t>
-  </si>
-  <si>
-    <t>52  Game Provider Name = NetEnt   Game Name =  Jack And Beans Talk  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/JackBeansTalk.jpg.jpg</t>
-  </si>
-  <si>
-    <t>53  Game Provider Name = NetEnt   Game Name =  Jack Hammer  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/JackHammer.jpg</t>
-  </si>
-  <si>
-    <t>54  Game Provider Name = NetEnt   Game Name =  Jack Hammer 2  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/JackHammer2.jpg</t>
-  </si>
-  <si>
-    <t>56  Game Provider Name = NetEnt   Game Name =  Jimi Hendrix  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/JimiHendrix.jpg</t>
-  </si>
-  <si>
-    <t>57  Game Provider Name = NetEnt   Game Name =  Joker Pro  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Joker_Pro_252_190.jpg</t>
-  </si>
-  <si>
-    <t>58  Game Provider Name = NetEnt   Game Name =  Jungle Spirit  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Jungle_spirit_252_190.jpg</t>
-  </si>
-  <si>
-    <t>59  Game Provider Name = NetEnt   Game Name =  King Of Slots  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/KingOfSlots.jpg.jpg</t>
-  </si>
-  <si>
-    <t>60  Game Provider Name = NetEnt   Game Name =  Koi Princess  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/KOI_princess_252_190.jpg</t>
-  </si>
-  <si>
-    <t>62  Game Provider Name = NetEnt   Game Name =  Lights  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Lights_252_190.jpg</t>
-  </si>
-  <si>
-    <t>63  Game Provider Name = NetEnt   Game Name =  longpao  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/long_pao.png</t>
-  </si>
-  <si>
-    <t>65  Game Provider Name = NetEnt   Game Name =  Lucky Angler  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Lucky_Angler_252_190.jpg</t>
-  </si>
-  <si>
-    <t>66  Game Provider Name = NetEnt   Game Name =  Magic Portals  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/magic_portals_252_190.jpg</t>
-  </si>
-  <si>
-    <t>72  Game Provider Name = NetEnt   Game Name =  Motor Head  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/motorbead_252_190.jpg</t>
-  </si>
-  <si>
-    <t>73  Game Provider Name = NetEnt   Game Name =  Multiplier Mayhem  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Drive_multiplayer_mayhem_252_190.jpg</t>
-  </si>
-  <si>
-    <t>74  Game Provider Name = NetEnt   Game Name =  Mythic Maiden  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Mythic_Maiden_252_190.jpg</t>
-  </si>
-  <si>
-    <t>75  Game Provider Name = NetEnt   Game Name =  Neon Staxx  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Neon_Taxx_252_190.jpg</t>
-  </si>
-  <si>
-    <t>76  Game Provider Name = NetEnt   Game Name =  Parthenon  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Parthenon.png</t>
-  </si>
-  <si>
-    <t>77  Game Provider Name = NetEnt   Game Name =  Piggy Riches  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/piggy_riches_252_190.jpg</t>
-  </si>
-  <si>
-    <t>79  Game Provider Name = NetEnt   Game Name =  Pyramid  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Pyramid_Quest_for_Immortality_252_190.jpg</t>
-  </si>
-  <si>
-    <t>81  Game Provider Name = NetEnt   Game Name =  RageOfTheSeas  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/rage_of_seas.png</t>
-  </si>
-  <si>
-    <t>83  Game Provider Name = NetEnt   Game Name =  reefraider_r1  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/reef_raider.png</t>
-  </si>
-  <si>
-    <t>84  Game Provider Name = NetEnt   Game Name =  Reel Rush  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Reel_Rush_252_190.jpg</t>
-  </si>
-  <si>
-    <t>90  Game Provider Name = NetEnt   Game Name =  Scruffy Duck  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Scruffy_duck_252_190.jpg</t>
-  </si>
-  <si>
-    <t>91  Game Provider Name = NetEnt   Game Name =  Secrets Of Christmas  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Secrets_of_Christmas_252_190.jpg</t>
-  </si>
-  <si>
-    <t>92  Game Provider Name = NetEnt   Game Name =  shangrila  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/shangri_la.png</t>
-  </si>
-  <si>
-    <t>93  Game Provider Name = NetEnt   Game Name =  SpaceWars  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/SpaceWars.jpg.jpg</t>
-  </si>
-  <si>
-    <t>94  Game Provider Name = NetEnt   Game Name =  Sparks  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Sparks_252_190.jpg</t>
-  </si>
-  <si>
-    <t>95  Game Provider Name = NetEnt   Game Name =  Spellcast  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/spellcast.jpg.jpg</t>
-  </si>
-  <si>
-    <t>96  Game Provider Name = NetEnt   Game Name =  Spinsane  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/spinsane.jpg.jpg</t>
-  </si>
-  <si>
-    <t>97  Game Provider Name = NetEnt   Game Name =  StarBurst  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Sturburst_252_190.jpg</t>
-  </si>
-  <si>
-    <t>98  Game Provider Name = NetEnt   Game Name =  Steam Tower  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Steam_tower_252_190.jpg</t>
-  </si>
-  <si>
-    <t>99  Game Provider Name = NetEnt   Game Name =  Stickers  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/stickers_252_190.jpg</t>
-  </si>
-  <si>
-    <t>100  Game Provider Name = PragmaticPlay   Game Name =  Sweet Bonanza  cod = 404   src = https://resources.tetherbet.io/products/pragmaticplay/mob/SweetBonanzaXmas.png</t>
-  </si>
-  <si>
-    <t>101  Game Provider Name = PragmaticPlay   Game Name =  Sweet Bonanza Xmas  cod = 404   src = https://resources.tetherbet.io/products/pragmaticplay/mob/SweetBonanzaXmas.png</t>
-  </si>
-  <si>
-    <t>102  Game Provider Name = NetEnt   Game Name =  Sweety Honey Fruity  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/SweetyHoneyFruity.jpg.jpg</t>
-  </si>
-  <si>
-    <t>103  Game Provider Name = PragmaticPlay   Game Name =  The Dog House  cod = 404   src = https://resources.tetherbet.io/products/pragmaticplay/mob/TheDogHouse.png</t>
-  </si>
-  <si>
-    <t>104  Game Provider Name = PragmaticPlay   Game Name =  The Dog House Megaways  cod = 404   src = https://resources.tetherbet.io/products/pragmaticplay/mob/TheDogHouseMegaways.png</t>
-  </si>
-  <si>
-    <t>105  Game Provider Name = NetEnt   Game Name =  Theme Park  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Theme_park_252_190.jpg</t>
-  </si>
-  <si>
-    <t>106  Game Provider Name = NetEnt   Game Name =  Twin Happiness  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/TwinHappiness.jpg.jpg</t>
-  </si>
-  <si>
-    <t>107  Game Provider Name = NetEnt   Game Name =  Twin Spin  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/twin_spin_252_190.jpg</t>
-  </si>
-  <si>
-    <t>108  Game Provider Name = NetEnt   Game Name =  TwinSpinDeluxe  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/twin_spin_deluxe.png</t>
-  </si>
-  <si>
-    <t>109  Game Provider Name = NetEnt   Game Name =  twinspinmw  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/twinspin.png</t>
-  </si>
-  <si>
-    <t>110  Game Provider Name = NetEnt   Game Name =  Victorious  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Victorious_252_190.jpg</t>
-  </si>
-  <si>
-    <t>111  Game Provider Name = NetEnt   Game Name =  vikings  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/vikings.png</t>
-  </si>
-  <si>
-    <t>112  Game Provider Name = NetEnt   Game Name =  Warlords  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Warlords_252_190.jpg</t>
-  </si>
-  <si>
-    <t>113  Game Provider Name = NetEnt   Game Name =  whosthebride  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/whos_bride.png</t>
-  </si>
-  <si>
-    <t>114  Game Provider Name = PragmaticPlay   Game Name =  Wild West Gold  cod = 404   src = https://resources.tetherbet.io/products/pragmaticplay/mob/WildWestGold.png</t>
-  </si>
-  <si>
-    <t>115  Game Provider Name = NetEnt   Game Name =  WildOTron  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/wild_o_tron.png</t>
-  </si>
-  <si>
-    <t>116  Game Provider Name = NetEnt   Game Name =  WildTurkey  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/wild_turkey.png</t>
-  </si>
-  <si>
-    <t>117  Game Provider Name = NetEnt   Game Name =  Wild Water  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Wild_water_252_190.jpg</t>
-  </si>
-  <si>
-    <t>119  Game Provider Name = NetEnt   Game Name =  wingsofriches  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/wings_riches.png</t>
-  </si>
-  <si>
-    <t>120  Game Provider Name = NetEnt   Game Name =  Wolf Cub  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/wolf_cub_252_190.jpg</t>
-  </si>
-  <si>
-    <t>121  Game Provider Name = NetEnt   Game Name =  Wolfs Night  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/WolfsNight.jpg.jpg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>154  Game Provider Name = RedTiger   Game Name =  24hourgrandprix  cod = 404   src = https://resources.tetherbet.io/products/redtiger/mobile/24grand_prix.png</t>
   </si>
@@ -344,21 +56,30 @@
     <t>750  Game Provider Name = RedTiger   Game Name =  clashofthebeasts  cod = 404   src = https://resources.tetherbet.io/products/redtiger/mobile/clash_beasts.png</t>
   </si>
   <si>
+    <t>755  Game Provider Name = IGT   Game Name =  Cleopatra  cod = 404   src = https://resources.tetherbet.io/products/outcomebet/cleopatra_gpe.jpg</t>
+  </si>
+  <si>
+    <t>794  Game Provider Name = IGT   Game Name =  Coyote Moon  cod = 404   src = https://resources.tetherbet.io/products/outcomebet/coyotemoon.jpg</t>
+  </si>
+  <si>
     <t>808  Game Provider Name = RedTiger   Game Name =  crazygenie  cod = 404   src = https://resources.tetherbet.io/products/redtiger/mobile/crazy_genie.png</t>
   </si>
   <si>
     <t>829  Game Provider Name = RedTiger   Game Name =  crystalmirror  cod = 404   src = https://resources.tetherbet.io/products/redtiger/mobile/crystal_mirror.png</t>
   </si>
   <si>
+    <t>854  Game Provider Name = IGT   Game Name =  Day of the Dead  cod = 404   src = https://resources.tetherbet.io/products/outcomebet/day_of_the_dead.jpg</t>
+  </si>
+  <si>
     <t>881  Game Provider Name = RedTiger   Game Name =  devilsnumber  cod = 404   src = https://resources.tetherbet.io/products/redtiger/mobile/devil_number.png</t>
   </si>
   <si>
+    <t>891  Game Provider Name = IGT   Game Name =  Diamond Queen  cod = 404   src = https://resources.tetherbet.io/products/outcomebet/diamond_queen.jpg</t>
+  </si>
+  <si>
     <t>905  Game Provider Name = RedTiger   Game Name =  dicedicedice  cod = 404   src = https://resources.tetherbet.io/products/redtiger/mobile/dice_dice_dice.png</t>
   </si>
   <si>
-    <t>919  Game Provider Name = NetEnt   Game Name =  divinemegaways  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/divinemegaways.png</t>
-  </si>
-  <si>
     <t>977  Game Provider Name = RedTiger   Game Name =  dragonkinglegendoftheseas  cod = 404   src = https://resources.tetherbet.io/products/redtiger/mobile/dragon_king_legend_seas.png</t>
   </si>
   <si>
@@ -374,7 +95,7 @@
     <t>1062  Game Provider Name = RedTiger   Game Name =  esqueletomariachi  cod = 404   src = https://resources.tetherbet.io/products/redtiger/mobile/esqueleto_mariachi.png</t>
   </si>
   <si>
-    <t>1151  Game Provider Name = PragmaticPlay   Game Name =  Fishin Reels  cod = 404   src = https://resources.tetherbet.io/products/pragmaticplay/mob/fishin_reels.png</t>
+    <t>1137  Game Provider Name = IGT   Game Name =  Fire Opals  cod = 404   src = https://resources.tetherbet.io/products/outcomebet/fire_opals.jpg</t>
   </si>
   <si>
     <t>1156  Game Provider Name = RedTiger   Game Name =  fivestar  cod = 404   src = https://resources.tetherbet.io/products/redtiger/mobile/five_star.png</t>
@@ -404,9 +125,6 @@
     <t>1252  Game Provider Name = RedTiger   Game Name =  fruitblox  cod = 404   src = https://resources.tetherbet.io/products/redtiger/mobile/fruit_blox.png</t>
   </si>
   <si>
-    <t>1277  Game Provider Name = NetEnt   Game Name =  FruitshopMegaWays  cod = 404   src = https://resources.tetherbet.io/products/netent/mob/Fruitshop_376x250.gif</t>
-  </si>
-  <si>
     <t>1326  Game Provider Name = RedTiger   Game Name =  gemsgonewild  cod = 404   src = https://resources.tetherbet.io/products/redtiger/mobile/gems_gone_wild.png</t>
   </si>
   <si>
@@ -518,9 +236,27 @@
     <t>2272  Game Provider Name = RedTiger   Game Name =  persianfortune  cod = 404   src = https://resources.tetherbet.io/products/redtiger/mobile/persian_fortune.png</t>
   </si>
   <si>
+    <t>2283  Game Provider Name = RedTiger   Game Name =  phoenixfirepowerreels  cod = 404   src = https://resources.tetherbet.io/products/redtiger/phoenix_fire_power_reels.png</t>
+  </si>
+  <si>
+    <t>2295  Game Provider Name = RedTiger   Game Name =  piggyrichesmegaways  cod = 404   src = https://resources.tetherbet.io/products/redtiger/piggy_riches_mw.png</t>
+  </si>
+  <si>
+    <t>2381  Game Provider Name = RedTiger   Game Name =  pussnboots  cod = 404   src = https://resources.tetherbet.io/products/redtiger/puss_boots.png</t>
+  </si>
+  <si>
     <t>2416  Game Provider Name = RedTiger   Game Name =  rainbowjackpots  cod = 404   src = https://resources.tetherbet.io/products/redtiger/rainbow_jackpot.png</t>
   </si>
   <si>
+    <t>2426  Game Provider Name = RedTiger   Game Name =  reactor  cod = 404   src = https://resources.tetherbet.io/products/redtiger/reactor.png</t>
+  </si>
+  <si>
+    <t>2448  Game Provider Name = RedTiger   Game Name =  reelkingmega  cod = 404   src = https://resources.tetherbet.io/products/redtiger/reel_king_mega.png</t>
+  </si>
+  <si>
+    <t>2454  Game Provider Name = RedTiger   Game Name =  regalbeasts  cod = 404   src = https://resources.tetherbet.io/products/redtiger/regal_beasts.png</t>
+  </si>
+  <si>
     <t>2455  Game Provider Name = RedTiger   Game Name =  regalstreak  cod = 404   src = https://resources.tetherbet.io/products/redtiger/mobile/regal_streak.png</t>
   </si>
   <si>
@@ -582,9 +318,6 @@
   </si>
   <si>
     <t>3322  Game Provider Name = RedTiger   Game Name =  wildcatsmultiline  cod = 404   src = https://resources.tetherbet.io/products/redtiger/mobile/wild_cats_multiline.png</t>
-  </si>
-  <si>
-    <t>3324  Game Provider Name = RedTiger   Game Name =  wildfight  cod = 404   src = https://resources.tetherbet.io/products/redtiger/web/wild_fight.png</t>
   </si>
   <si>
     <t>3329  Game Provider Name = RedTiger   Game Name =  wildwildchest  cod = 404   src = https://resources.tetherbet.io/products/redtiger/mobile/wild_wild_chest.png</t>
@@ -638,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A194"/>
+  <dimension ref="A1:A105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1172,451 +905,6 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>193</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
